--- a/lists/contributor_lists_2024-01-31.xlsx
+++ b/lists/contributor_lists_2024-01-31.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhasegaw/Dropbox/mark/projects/split_train_test/lists/2024-01-31/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhasegaw/Dropbox/mark/projects/split_train_test/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D7E59B7-FDDF-3B48-B4A4-AAF7FA3F42C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3E2395-477D-B541-B5CF-17EE387638AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{71037191-9DB5-DD41-9695-070E4B62586A}"/>
   </bookViews>
@@ -1232,13 +1232,13 @@
     <t>bfdd87ed-10f0-46a4-b109-08dc2a4a210d</t>
   </si>
   <si>
-    <t>uuid</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>block</t>
+    <t>ContributorID</t>
+  </si>
+  <si>
+    <t>List#</t>
+  </si>
+  <si>
+    <t>Block#</t>
   </si>
 </sst>
 </file>
@@ -1295,9 +1295,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1335,7 +1335,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1441,7 +1441,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1583,7 +1583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1594,7 +1594,7 @@
   <dimension ref="A1:C3105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lists/contributor_lists_2024-01-31.xlsx
+++ b/lists/contributor_lists_2024-01-31.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhasegaw/Dropbox/mark/projects/split_train_test/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3E2395-477D-B541-B5CF-17EE387638AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A1D517-7FD7-8A4B-ADA3-86B154DD0EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{71037191-9DB5-DD41-9695-070E4B62586A}"/>
   </bookViews>
@@ -1232,13 +1232,13 @@
     <t>bfdd87ed-10f0-46a4-b109-08dc2a4a210d</t>
   </si>
   <si>
-    <t>ContributorID</t>
-  </si>
-  <si>
-    <t>List#</t>
-  </si>
-  <si>
-    <t>Block#</t>
+    <t>ContributorId</t>
+  </si>
+  <si>
+    <t>ListName</t>
+  </si>
+  <si>
+    <t>BlockName</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1594,7 @@
   <dimension ref="A1:C3105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
